--- a/xlsx/国际音标_intext.xlsx
+++ b/xlsx/国际音标_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
   <si>
     <t>国际音标</t>
   </si>
@@ -29,7 +29,7 @@
     <t>IPA (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_国际音标</t>
+    <t>政策_政策_维基百科_国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E7%A0%81</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E9%9F%B3</t>
   </si>
   <si>
-    <t>標音</t>
+    <t>标音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -95,13 +92,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AA%9E%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>言語治療</t>
+    <t>言语治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E8%AF%AD</t>
@@ -119,19 +116,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%9B%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>辭書學</t>
+    <t>辞书学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>翻譯</t>
+    <t>翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%AA%9E</t>
   </si>
   <si>
-    <t>口語</t>
+    <t>口语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%BD%8D</t>
@@ -143,37 +140,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%AA%BF</t>
   </si>
   <si>
-    <t>語調</t>
+    <t>语调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>詞語</t>
+    <t>词语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>音節</t>
+    <t>音节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%A1%8E%E8%A3%82</t>
   </si>
   <si>
-    <t>唇顎裂</t>
+    <t>唇颚裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99%E6%93%B4%E5%B1%95</t>
   </si>
   <si>
-    <t>國際音標擴展</t>
+    <t>国际音标扩展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>變音符號</t>
+    <t>变音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%9F%B3%E6%AE%B5%E6%88%90%E5%88%86</t>
@@ -185,55 +182,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>國際音標歷史</t>
+    <t>国际音标历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%A4%AE%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開央不圓唇元音</t>
+    <t>半开央不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%BF%81%E9%9F%B3</t>
   </si>
   <si>
-    <t>清濁音</t>
+    <t>清浊音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A0%B4%E9%9F%B3</t>
   </si>
   <si>
-    <t>內破音</t>
+    <t>内破音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%BD%92%E9%96%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>唇齒閃音</t>
+    <t>唇齿闪音</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/VoQS</t>
@@ -275,13 +272,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>聲調</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E9%9F%B3</t>
   </si>
   <si>
-    <t>輔音</t>
+    <t>辅音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3</t>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
@@ -305,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>古英語</t>
+    <t>古英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E9%9F%B3</t>
@@ -329,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>芬蘭語</t>
+    <t>芬兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B2%E8%88%8C%E9%9F%B3</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%BD%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒齦音</t>
+    <t>齿龈音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%9F%B3%E6%AE%B5</t>
@@ -365,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%B1%95%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>擴展國際音標</t>
+    <t>扩展国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E9%9F%B3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>輔音列表</t>
+    <t>辅音列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E9%83%A8%E6%B0%94%E6%B5%81%E9%9F%B3</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門音</t>
+    <t>声门音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%9F%B3%E6%96%B9%E6%B3%95</t>
@@ -443,13 +437,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%BF%E9%BE%88%E9%9F%B3</t>
   </si>
   <si>
-    <t>齿龈音</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%BD%A6%E5%BE%8C%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒齦後音</t>
+    <t>齿龈后音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%88%E9%A2%9A%E9%9F%B3</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%A1%8E%E9%9F%B3</t>
   </si>
   <si>
-    <t>硬顎音</t>
+    <t>硬颚音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E9%A2%9A%E9%9F%B3</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%8E%AD%E9%9F%B3</t>
   </si>
   <si>
-    <t>會厭音</t>
+    <t>会厌音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E9%9F%B3</t>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%BD%92%E9%BC%BB%E9%9F%B3</t>
   </si>
   <si>
-    <t>唇齒鼻音</t>
+    <t>唇齿鼻音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%BF%E9%BE%88%E9%BC%BB%E9%9F%B3</t>
@@ -575,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%9B%99%E5%94%87%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清雙唇塞音</t>
+    <t>清双唇塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%9B%99%E5%94%87%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁雙唇塞音</t>
+    <t>浊双唇塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%94%87%E9%BD%BF%E5%A1%9E%E9%9F%B3</t>
@@ -611,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%92%E9%BD%A6%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清齒齦塞音</t>
+    <t>清齿龈塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%BD%92%E9%BD%A6%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁齒齦塞音</t>
+    <t>浊齿龈塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%8D%B2%E8%88%8C%E5%A1%9E%E9%9F%B3</t>
@@ -629,31 +620,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E6%8D%B2%E8%88%8C%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁捲舌塞音</t>
+    <t>浊捲舌塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%A1%AC%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清硬顎塞音</t>
+    <t>清硬颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E7%A1%AC%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁硬顎塞音</t>
+    <t>浊硬颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%BB%9F%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>清軟顎塞音</t>
+    <t>清软颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E8%BB%9F%E9%A1%8E%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁軟顎塞音</t>
+    <t>浊软颚塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%B0%8F%E8%88%8C%E5%A1%9E%E9%9F%B3</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%B0%8F%E8%88%8C%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁小舌塞音</t>
+    <t>浊小舌塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E5%8E%8C%E5%A1%9E%E9%9F%B3</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E5%A1%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門塞音</t>
+    <t>声门塞音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%9D%E9%9F%B3</t>
@@ -707,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%A1%8E%E9%BD%A6%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清顎齦塞擦音</t>
+    <t>清颚龈塞擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%A1%8E%E9%BD%A6%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁顎齦塞擦音</t>
+    <t>浊颚龈塞擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%8D%B2%E8%88%8C%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%A6%E9%A1%8E%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清齦顎塞擦音</t>
+    <t>清龈颚塞擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E9%BE%88%E9%A2%9A%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E7%A1%AC%E9%A1%8E%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁硬顎塞擦音</t>
+    <t>浊硬颚塞擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%BF%E9%BE%88%E6%9C%89%E5%92%9D%E6%93%A6%E9%9F%B3</t>
@@ -839,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%94%87%E9%BD%92%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清唇齒擦音</t>
+    <t>清唇齿擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%94%87%E9%BD%92%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁唇齒擦音</t>
+    <t>浊唇齿擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%BF%E6%97%A0%E5%92%9D%E6%93%A6%E9%9F%B3</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%A1%AC%E9%A1%8E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清硬顎擦音</t>
+    <t>清硬颚擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E7%A1%AC%E9%A2%9A%E6%93%A6%E9%9F%B3</t>
@@ -887,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%BB%9F%E9%A1%8E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清軟顎擦音</t>
+    <t>清软颚擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E8%BB%9F%E9%A1%8E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁軟顎擦音</t>
+    <t>浊软颚擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%B0%8F%E8%88%8C%E6%93%A6%E9%9F%B3</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%B0%8F%E8%88%8C%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁小舌擦音</t>
+    <t>浊小舌擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%92%BD%E6%93%A6%E9%9F%B3</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E8%81%B2%E9%96%80%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁聲門擦音</t>
+    <t>浊声门擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%9F%B3</t>
@@ -941,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%93%A6%E9%80%9A%E9%9F%B3</t>
   </si>
   <si>
-    <t>無擦通音</t>
+    <t>无擦通音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%BD%92%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>唇齒近音</t>
+    <t>唇齿近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%BF%E9%BE%88%E8%BF%91%E9%9F%B3</t>
@@ -1061,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%92%E9%BD%A6%E9%82%8A%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清齒齦邊擦音</t>
+    <t>清齿龈边擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%BD%92%E9%BD%A6%E9%82%8A%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁齒齦邊擦音</t>
+    <t>浊齿龈边擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%8D%B2%E8%88%8C%E9%82%8A%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清捲舌邊擦音</t>
+    <t>清捲舌边擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%BF%E9%BE%88%E8%BE%B9%E8%BF%91%E9%9F%B3</t>
@@ -1097,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%A1%AC%E9%A1%8E%E9%82%8A%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>清硬顎邊近音</t>
+    <t>清硬颚边近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%A2%9A%E8%BE%B9%E8%BF%91%E9%9F%B3</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%88%86%E9%9F%B3</t>
   </si>
   <si>
-    <t>內爆音</t>
+    <t>内爆音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E5%8F%8C%E5%94%87%E5%86%85%E7%88%86%E9%9F%B3</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E7%A1%AC%E9%A1%8E%E5%85%A7%E7%88%86%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁硬顎內爆音</t>
+    <t>浊硬颚内爆音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E8%BD%AF%E9%A2%9A%E5%86%85%E7%88%86%E9%9F%B3</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%BD%A6%E6%93%A0%E5%96%89%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒齦擠喉音</t>
+    <t>齿龈挤喉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%90%8C%E5%8F%91%E9%9F%B3%E8%BE%85%E9%9F%B3</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E7%BA%8C%E9%9F%B3</t>
   </si>
   <si>
-    <t>持續音</t>
+    <t>持续音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%9C%86%E5%94%87%E8%BD%AF%E9%A2%9A%E8%BF%91%E9%9F%B3</t>
@@ -1199,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%9C%93%E5%94%87%E8%BB%9F%E9%A1%8E%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁圓唇軟顎近音</t>
+    <t>浊圆唇软颚近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E5%9C%93%E5%94%87%E7%A1%AC%E9%A1%8E%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁圓唇硬顎近音</t>
+    <t>浊圆唇硬颚近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AD%E5%90%88%E9%9F%B3</t>
@@ -1301,67 +1292,67 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E5%BE%8C%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次後元音</t>
+    <t>次后元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>後元音</t>
+    <t>后元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉元音</t>
+    <t>闭元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%89%8D%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉前不圓唇元音</t>
+    <t>闭前不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉前圓唇元音</t>
+    <t>闭前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%A4%AE%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉央不圓唇元音</t>
+    <t>闭央不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%A4%AE%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉央圓唇元音</t>
+    <t>闭央圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%BE%8C%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉後不圓唇元音</t>
+    <t>闭后不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%BE%8C%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉後圓唇元音</t>
+    <t>闭后圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%89%E6%AC%A1%E5%89%8D%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次閉次前不圓唇元音</t>
+    <t>次闭次前不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%89%E6%AC%A1%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次閉次前圓唇元音</t>
+    <t>次闭次前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%97%AD%E5%A4%AE%E4%B8%8D%E5%9C%86%E5%94%87%E5%85%83%E9%9F%B3</t>
@@ -1379,43 +1370,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%89%E6%AC%A1%E5%BE%8C%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次閉次後圓唇元音</t>
+    <t>次闭次后圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%89%8D%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉前不圓唇元音</t>
+    <t>半闭前不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉前圓唇元音</t>
+    <t>半闭前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%A4%AE%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉央不圓唇元音</t>
+    <t>半闭央不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%A4%AE%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉央圓唇元音</t>
+    <t>半闭央圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%BE%8C%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉後不圓唇元音</t>
+    <t>半闭后不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%BE%8C%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉後圓唇元音</t>
+    <t>半闭后圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%89%8D%E4%B8%8D%E5%9C%86%E5%94%87%E5%85%83%E9%9F%B3</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>中前圓唇元音</t>
+    <t>中前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%85%83%E9%9F%B3</t>
@@ -1439,43 +1430,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%89%8D%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開前不圓唇元音</t>
+    <t>半开前不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開前圓唇元音</t>
+    <t>半开前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%A4%AE%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開央圓唇元音</t>
+    <t>半开央圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%BE%8C%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開後不圓唇元音</t>
+    <t>半开后不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%BE%8C%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開後圓唇元音</t>
+    <t>半开后圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%8B%E5%89%8D%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次開前不圓唇元音</t>
+    <t>次开前不圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%8B%E5%A4%AE%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次開央元音</t>
+    <t>次开央元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%89%8D%E4%B8%8D%E5%9C%86%E5%94%87%E5%85%83%E9%9F%B3</t>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%89%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>開前圓唇元音</t>
+    <t>开前圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%A4%AE%E4%B8%8D%E5%9C%86%E5%94%87%E5%85%83%E9%9F%B3</t>
@@ -1505,37 +1496,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%BE%8C%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>開後圓唇元音</t>
+    <t>开后圆唇元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%89%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次閉元音</t>
+    <t>次闭元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉元音</t>
+    <t>半闭元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%8B%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半開元音</t>
+    <t>半开元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E9%96%8B%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>次開元音</t>
+    <t>次开元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>開元音</t>
+    <t>开元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%85%83%E9%9F%B3</t>
@@ -1547,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%8A%A0%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>附加符號</t>
+    <t>附加符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E9%83%A8</t>
@@ -1571,19 +1562,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%81%E6%B0%A3</t>
   </si>
   <si>
-    <t>送氣</t>
+    <t>送气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%81%B2%E9%99%A4%E9%98%BB</t>
   </si>
   <si>
-    <t>無聲除阻</t>
+    <t>无声除阻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E5%8C%96</t>
   </si>
   <si>
-    <t>齒化</t>
+    <t>齿化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8C%E5%B0%96%E5%8C%96</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%94%87</t>
   </si>
   <si>
-    <t>圓唇</t>
+    <t>圆唇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E5%8C%96</t>
@@ -1613,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8E%E5%8C%96</t>
   </si>
   <si>
-    <t>顎化</t>
+    <t>颚化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E9%A2%9A%E5%8C%96</t>
@@ -1643,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BF%E9%9F%B3</t>
   </si>
   <si>
-    <t>響音</t>
+    <t>响音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B0%E9%97%A8</t>
@@ -1691,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E9%95%B7%E5%BA%A6</t>
   </si>
   <si>
-    <t>元音長度</t>
+    <t>元音长度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%BC%94%E9%9F%B3</t>
   </si>
   <si>
-    <t>長輔音</t>
+    <t>长辅音</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Extra-short</t>
@@ -1709,9 +1700,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%8A%82</t>
   </si>
   <si>
-    <t>音节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E8%AF%B5</t>
   </si>
   <si>
@@ -1739,19 +1727,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%BD%8D%E9%99%8D%E9%9A%8E</t>
   </si>
   <si>
-    <t>音位降階</t>
+    <t>音位降阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>發音</t>
+    <t>发音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E9%87%8E%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>田野調查</t>
+    <t>田野调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -1817,9 +1805,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%A4%AE%E4%B8%8D%E5%9C%93%E5%94%87%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>開央不圓唇元音</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E1%B4%87</t>
   </si>
   <si>
@@ -1841,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>英語國際音標</t>
+    <t>英语国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%AF%AD%E9%9F%B3%E5%AD%A6%E5%8D%8F%E4%BC%9A</t>
@@ -1853,13 +1838,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>香港語言學學會</t>
+    <t>香港语言学学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Times_New_Roman</t>
@@ -1877,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢語拼音</t>
+    <t>汉语拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -1925,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2482,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -2508,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -2537,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2566,10 +2548,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2595,10 +2577,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -2624,10 +2606,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
@@ -2653,10 +2635,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2682,10 +2664,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2711,10 +2693,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2740,10 +2722,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2769,10 +2751,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2798,10 +2780,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2827,10 +2809,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2856,10 +2838,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -2885,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -2914,10 +2896,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2943,10 +2925,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -2972,10 +2954,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3001,10 +2983,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -3030,10 +3012,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>9</v>
@@ -3059,10 +3041,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -3088,10 +3070,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3117,10 +3099,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3146,10 +3128,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>23</v>
@@ -3175,10 +3157,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>14</v>
@@ -3233,10 +3215,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -3262,10 +3244,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
         <v>55</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3291,10 +3273,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3320,10 +3302,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>15</v>
@@ -3349,10 +3331,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3378,10 +3360,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3407,10 +3389,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3436,10 +3418,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>9</v>
@@ -3465,10 +3447,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -3494,10 +3476,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>10</v>
@@ -3523,10 +3505,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3552,10 +3534,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -3581,10 +3563,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3610,10 +3592,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>11</v>
@@ -3639,10 +3621,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>23</v>
@@ -3668,10 +3650,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3697,10 +3679,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3726,10 +3708,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3755,10 +3737,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3784,10 +3766,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3813,10 +3795,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -3842,10 +3824,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3871,10 +3853,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3900,10 +3882,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3929,10 +3911,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3958,10 +3940,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3987,10 +3969,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>7</v>
@@ -4016,10 +3998,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4045,10 +4027,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4074,10 +4056,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -4103,10 +4085,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -4132,10 +4114,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>28</v>
@@ -4161,10 +4143,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4190,10 +4172,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4219,10 +4201,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4248,10 +4230,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4277,10 +4259,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -4306,10 +4288,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4335,10 +4317,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4364,10 +4346,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>15</v>
@@ -4393,10 +4375,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -4422,10 +4404,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4451,10 +4433,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4480,10 +4462,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4509,10 +4491,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4538,10 +4520,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>8</v>
@@ -4567,10 +4549,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4596,10 +4578,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4625,10 +4607,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4654,10 +4636,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -4683,10 +4665,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4712,10 +4694,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>178</v>
@@ -4741,10 +4723,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4770,10 +4752,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4799,10 +4781,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>434</v>
@@ -4828,10 +4810,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4857,10 +4839,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4886,10 +4868,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4915,10 +4897,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4944,10 +4926,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>12</v>
@@ -4973,10 +4955,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5002,10 +4984,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5031,10 +5013,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5060,10 +5042,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>185</v>
@@ -5089,10 +5071,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>92</v>
@@ -5118,10 +5100,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5147,10 +5129,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5176,10 +5158,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5205,10 +5187,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5234,10 +5216,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>587</v>
@@ -5263,10 +5245,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>278</v>
@@ -5292,10 +5274,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5321,10 +5303,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5350,10 +5332,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>242</v>
@@ -5379,10 +5361,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5408,10 +5390,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>89</v>
@@ -5437,10 +5419,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -5466,10 +5448,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
@@ -5495,10 +5477,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5524,10 +5506,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -5553,10 +5535,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5582,10 +5564,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5611,10 +5593,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>16</v>
@@ -5640,10 +5622,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>10</v>
@@ -5669,10 +5651,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5698,10 +5680,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5727,10 +5709,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5756,10 +5738,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5785,10 +5767,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5814,10 +5796,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5843,10 +5825,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5872,10 +5854,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F124" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5901,10 +5883,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5930,10 +5912,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5959,10 +5941,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5988,10 +5970,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6017,10 +5999,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6046,10 +6028,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F130" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6075,10 +6057,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>399</v>
@@ -6104,10 +6086,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>28</v>
@@ -6133,10 +6115,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>9</v>
@@ -6162,10 +6144,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>5</v>
@@ -6191,10 +6173,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>5</v>
@@ -6220,10 +6202,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6249,10 +6231,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -6278,10 +6260,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6307,10 +6289,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6336,10 +6318,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6365,10 +6347,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -6394,10 +6376,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>81</v>
@@ -6423,10 +6405,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>64</v>
@@ -6452,10 +6434,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>8</v>
@@ -6481,10 +6463,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>6</v>
@@ -6510,10 +6492,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6539,10 +6521,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6568,10 +6550,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -6597,10 +6579,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6626,10 +6608,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>67</v>
@@ -6655,10 +6637,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6684,10 +6666,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -6713,10 +6695,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6742,10 +6724,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6771,10 +6753,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6800,10 +6782,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>153</v>
@@ -6829,10 +6811,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6858,10 +6840,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6887,10 +6869,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6916,10 +6898,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6945,10 +6927,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>9</v>
@@ -6974,10 +6956,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7003,10 +6985,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>12</v>
@@ -7032,10 +7014,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7061,10 +7043,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -7090,10 +7072,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -7119,10 +7101,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>70</v>
+      </c>
+      <c r="F167" t="s">
         <v>71</v>
-      </c>
-      <c r="F167" t="s">
-        <v>72</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7148,10 +7130,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7177,10 +7159,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -7206,10 +7188,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7235,10 +7217,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7264,10 +7246,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7293,10 +7275,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7322,10 +7304,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>340</v>
@@ -7351,10 +7333,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7380,10 +7362,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7409,10 +7391,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7438,10 +7420,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>6</v>
@@ -7467,10 +7449,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7496,10 +7478,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F180" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G180" t="n">
         <v>22</v>
@@ -7525,10 +7507,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -7554,10 +7536,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7583,10 +7565,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7612,10 +7594,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7641,10 +7623,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>313</v>
@@ -7670,10 +7652,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -7699,10 +7681,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7728,10 +7710,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -7757,10 +7739,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>9</v>
@@ -7786,10 +7768,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7815,10 +7797,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -7844,10 +7826,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>9</v>
@@ -7873,10 +7855,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>11</v>
@@ -7902,10 +7884,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>8</v>
@@ -7931,10 +7913,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -7960,10 +7942,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7989,10 +7971,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8018,10 +8000,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8047,10 +8029,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -8076,10 +8058,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8105,10 +8087,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8134,10 +8116,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8163,10 +8145,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8192,10 +8174,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>143</v>
@@ -8221,10 +8203,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8250,10 +8232,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F206" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8279,10 +8261,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8308,10 +8290,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8337,10 +8319,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8366,10 +8348,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>7</v>
@@ -8398,7 +8380,7 @@
         <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8424,10 +8406,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>66</v>
+      </c>
+      <c r="F212" t="s">
         <v>67</v>
-      </c>
-      <c r="F212" t="s">
-        <v>68</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8453,10 +8435,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8482,10 +8464,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F214" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8511,10 +8493,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F215" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8540,10 +8522,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F216" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8569,10 +8551,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F217" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8598,10 +8580,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F218" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8627,10 +8609,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F219" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8656,10 +8638,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F220" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8685,10 +8667,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8714,10 +8696,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8743,10 +8725,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8772,10 +8754,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8801,10 +8783,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8830,10 +8812,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8859,10 +8841,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8888,10 +8870,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G228" t="n">
         <v>13</v>
@@ -8917,10 +8899,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8946,10 +8928,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G230" t="n">
         <v>50</v>
@@ -8975,10 +8957,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9004,10 +8986,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G232" t="n">
         <v>8</v>
@@ -9033,10 +9015,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G233" t="n">
         <v>6</v>
@@ -9062,10 +9044,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G234" t="n">
         <v>525</v>
@@ -9091,10 +9073,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G235" t="n">
         <v>88</v>
@@ -9120,10 +9102,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9149,10 +9131,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9178,10 +9160,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -9207,10 +9189,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G239" t="n">
         <v>173</v>
@@ -9236,10 +9218,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G240" t="n">
         <v>8</v>
@@ -9265,10 +9247,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9294,10 +9276,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9323,10 +9305,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9352,10 +9334,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9381,10 +9363,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G245" t="n">
         <v>799</v>
@@ -9410,10 +9392,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F246" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9439,10 +9421,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F247" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9468,10 +9450,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F248" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9497,10 +9479,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F249" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9526,10 +9508,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F250" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G250" t="n">
         <v>425</v>
@@ -9555,10 +9537,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F251" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9584,10 +9566,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9613,10 +9595,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9642,10 +9624,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9671,10 +9653,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9700,10 +9682,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>64</v>
+      </c>
+      <c r="F256" t="s">
         <v>65</v>
-      </c>
-      <c r="F256" t="s">
-        <v>66</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9729,10 +9711,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9758,10 +9740,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9787,10 +9769,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -9816,10 +9798,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9845,10 +9827,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9874,10 +9856,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>549</v>
@@ -9903,10 +9885,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9932,10 +9914,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9961,10 +9943,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9990,10 +9972,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10019,10 +10001,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10048,10 +10030,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10077,10 +10059,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10106,10 +10088,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10135,10 +10117,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>7</v>
@@ -10164,10 +10146,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10193,10 +10175,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G273" t="n">
         <v>7</v>
@@ -10222,10 +10204,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10251,10 +10233,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10280,10 +10262,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>48</v>
+      </c>
+      <c r="F276" t="s">
         <v>49</v>
-      </c>
-      <c r="F276" t="s">
-        <v>50</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10309,10 +10291,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10338,10 +10320,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -10367,10 +10349,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10396,10 +10378,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>66</v>
+      </c>
+      <c r="F280" t="s">
         <v>67</v>
-      </c>
-      <c r="F280" t="s">
-        <v>68</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10425,10 +10407,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>66</v>
+      </c>
+      <c r="F281" t="s">
         <v>67</v>
-      </c>
-      <c r="F281" t="s">
-        <v>68</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10454,10 +10436,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10483,10 +10465,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F283" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10512,10 +10494,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F284" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10541,10 +10523,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F285" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10570,10 +10552,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F286" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -10599,10 +10581,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F287" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10628,10 +10610,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F288" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10657,10 +10639,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F289" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10686,10 +10668,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F290" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10715,10 +10697,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F291" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10744,10 +10726,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F292" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10773,10 +10755,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10802,10 +10784,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>8</v>
@@ -10831,10 +10813,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F295" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10860,10 +10842,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F296" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -10889,10 +10871,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F297" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10918,10 +10900,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F298" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10947,10 +10929,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10976,10 +10958,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>40</v>
+      </c>
+      <c r="F300" t="s">
         <v>41</v>
-      </c>
-      <c r="F300" t="s">
-        <v>42</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11005,10 +10987,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F301" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11034,10 +11016,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F302" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11063,10 +11045,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F303" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11092,10 +11074,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F304" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11121,10 +11103,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F305" t="s">
-        <v>564</v>
+        <v>45</v>
       </c>
       <c r="G305" t="n">
         <v>4</v>
@@ -11150,10 +11132,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11179,10 +11161,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F307" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11208,10 +11190,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F308" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11237,10 +11219,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11266,10 +11248,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11295,10 +11277,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11324,10 +11306,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11353,10 +11335,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11382,10 +11364,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G314" t="n">
         <v>13</v>
@@ -11411,10 +11393,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11440,10 +11422,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G316" t="n">
         <v>14</v>
@@ -11469,10 +11451,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11498,10 +11480,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11527,10 +11509,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11556,10 +11538,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11585,10 +11567,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11614,10 +11596,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11643,10 +11625,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11672,10 +11654,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11701,10 +11683,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11730,10 +11712,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F326" t="s">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -11759,10 +11741,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F327" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -11788,10 +11770,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F328" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11817,10 +11799,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11846,10 +11828,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11875,10 +11857,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11904,10 +11886,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -11933,10 +11915,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>61</v>
       </c>
       <c r="G333" t="n">
         <v>10</v>
@@ -11962,10 +11944,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F334" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11991,10 +11973,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F335" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12020,10 +12002,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F336" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12049,10 +12031,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F337" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12078,10 +12060,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F338" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G338" t="n">
         <v>4</v>
@@ -12107,10 +12089,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F339" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12136,10 +12118,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F340" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12165,10 +12147,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F341" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12194,10 +12176,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F342" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -12223,10 +12205,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F343" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12252,10 +12234,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F344" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12281,10 +12263,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F345" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12310,10 +12292,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F346" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12339,10 +12321,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F347" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -12368,10 +12350,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F348" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G348" t="n">
         <v>3</v>
@@ -12397,10 +12379,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F349" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12429,7 +12411,7 @@
         <v>13</v>
       </c>
       <c r="F350" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G350" t="n">
         <v>14</v>
@@ -12458,7 +12440,7 @@
         <v>13</v>
       </c>
       <c r="F351" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
